--- a/COMM/COMMttl.xlsx
+++ b/COMM/COMMttl.xlsx
@@ -509,7 +509,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="D4" t="n">
         <v>40</v>
@@ -528,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -585,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -623,7 +623,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>

--- a/COMM/COMMttl.xlsx
+++ b/COMM/COMMttl.xlsx
@@ -509,7 +509,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D4" t="n">
         <v>40</v>
@@ -528,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
@@ -585,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -623,7 +623,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>

--- a/COMM/COMMttl.xlsx
+++ b/COMM/COMMttl.xlsx
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" t="n">
-        <v>1012</v>
+        <v>670</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
-        <v>1177</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -620,13 +620,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
         <v>420</v>
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -673,33 +673,33 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>COMM 231</t>
+          <t>COMM 145</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>COMM 232</t>
+          <t>COMM 231</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -711,14 +711,14 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>COMM 233</t>
+          <t>COMM 232</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -730,20 +730,20 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>COMM 60</t>
+          <t>COMM 233</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/COMM/COMMttl.xlsx
+++ b/COMM/COMMttl.xlsx
@@ -509,7 +509,7 @@
         <v>43</v>
       </c>
       <c r="C4" t="n">
-        <v>670</v>
+        <v>736</v>
       </c>
       <c r="D4" t="n">
         <v>43</v>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
@@ -547,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -585,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -623,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D10" t="n">
         <v>15</v>
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
